--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.0145</v>
+        <v>16.22890000000001</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.34559999999999</v>
+        <v>16.36189999999998</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.79329999999999</v>
+        <v>-12.76009999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.915599999999997</v>
+        <v>5.710199999999997</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.820299999999999</v>
+        <v>6.603799999999995</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>15.89820000000002</v>
+        <v>15.88590000000001</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.697099999999997</v>
+        <v>4.542599999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.06199999999999</v>
+        <v>-13.8878</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.3986</v>
+        <v>16.36770000000001</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.08849999999998</v>
+        <v>-14.03789999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,16 +737,16 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.340399999999999</v>
+        <v>7.292600000000005</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.54919999999999</v>
+        <v>-11.34879999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.00580000000001</v>
+        <v>18.05980000000002</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.44390000000001</v>
+        <v>16.55130000000001</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.8792</v>
+        <v>-12.17</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.73380000000001</v>
+        <v>16.7041</v>
       </c>
     </row>
     <row r="22">
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.2874</v>
+        <v>5.452400000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.6269</v>
+        <v>16.7118</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.362</v>
+        <v>-11.3861</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.26679999999999</v>
+        <v>-13.3429</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.28139999999999</v>
+        <v>-13.4135</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.43980000000001</v>
+        <v>16.44410000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.3215</v>
+        <v>-11.4191</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.193600000000009</v>
+        <v>8.966800000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.4572</v>
+        <v>16.42849999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.69340000000001</v>
+        <v>-12.7393</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.14889999999999</v>
+        <v>16.2223</v>
       </c>
     </row>
     <row r="43">
@@ -1182,13 +1182,13 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.4145</v>
+        <v>-12.4576</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.8123</v>
+        <v>16.82749999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.74239999999999</v>
+        <v>16.7214</v>
       </c>
     </row>
     <row r="48">
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.54209999999999</v>
+        <v>-13.30769999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.3451</v>
+        <v>-13.2054</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.986999999999991</v>
+        <v>6.180499999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.48930000000002</v>
+        <v>16.5564</v>
       </c>
     </row>
     <row r="57">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>15.97000000000002</v>
+        <v>16.03430000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.28660000000001</v>
+        <v>17.3435</v>
       </c>
     </row>
     <row r="66">
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>6.239300000000002</v>
+        <v>6.462499999999998</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.97940000000001</v>
+        <v>-11.7901</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.38830000000002</v>
+        <v>17.4129</v>
       </c>
     </row>
     <row r="74">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.45850000000001</v>
+        <v>-12.3811</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.669000000000004</v>
+        <v>9.745400000000004</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.411899999999997</v>
+        <v>9.519000000000004</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.968800000000005</v>
+        <v>9.351700000000003</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.749899999999998</v>
+        <v>9.449299999999999</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.473800000000001</v>
+        <v>6.496500000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.266300000000001</v>
+        <v>4.959300000000002</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.967600000000001</v>
+        <v>6.9815</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.72949999999999</v>
+        <v>-13.74659999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.80509999999999</v>
+        <v>-12.6225</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.53979999999999</v>
+        <v>16.52069999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.83989999999999</v>
+        <v>-10.8404</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.41710000000001</v>
+        <v>18.44140000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>19.12790000000001</v>
+        <v>19.09850000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.17080000000001</v>
+        <v>18.31560000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.2402</v>
+        <v>-13.13350000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.79219999999999</v>
+        <v>-11.94089999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2148,16 +2148,16 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.580399999999996</v>
+        <v>9.091999999999997</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.35750000000001</v>
+        <v>-12.35180000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.54410000000001</v>
+        <v>16.43070000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.058200000000006</v>
+        <v>8.349100000000009</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.2922</v>
+        <v>-13.32240000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
